--- a/6sem/6111/tables/data.xlsx
+++ b/6sem/6111/tables/data.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,6 +921,10 @@
         <v>2.73</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
